--- a/Daisy-xls/ResearchPages/research-gastric-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-gastric-cancer.xlsx
@@ -115,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,12 +138,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -195,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -502,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -541,7 +559,9 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="18">
+        <v>488737</v>
+      </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
@@ -558,7 +578,9 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="18">
+        <v>806040</v>
+      </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
@@ -574,7 +596,9 @@
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="18">
+        <v>13591</v>
+      </c>
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
